--- a/WS/WS_marcaciones.xlsx
+++ b/WS/WS_marcaciones.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ERPGIT\ERP\WS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SystemHost\Documents\GitHub\ERP\WS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Marcaciones" sheetId="1" r:id="rId1"/>
@@ -311,6 +311,10 @@
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,39 +351,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:H37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,16 +709,16 @@
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -730,89 +730,89 @@
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="3:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="4"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="22" t="s">
@@ -824,89 +824,89 @@
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="4"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="22" t="s">
@@ -918,89 +918,89 @@
       <c r="H26" s="24"/>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="4"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="22" t="s">
@@ -1012,76 +1012,76 @@
       <c r="H37" s="24"/>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="3"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="10"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="3"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="10"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="4"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="28">
